--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ephb4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H2">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I2">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J2">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N2">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O2">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P2">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q2">
-        <v>7.557895229282668</v>
+        <v>3.627986589455666</v>
       </c>
       <c r="R2">
-        <v>68.02105706354401</v>
+        <v>32.651879305101</v>
       </c>
       <c r="S2">
-        <v>0.3529900128340117</v>
+        <v>0.1055320081630019</v>
       </c>
       <c r="T2">
-        <v>0.3529900128340116</v>
+        <v>0.1055320081630019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H3">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I3">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J3">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>24.434749</v>
       </c>
       <c r="O3">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P3">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q3">
-        <v>1.521231453520889</v>
+        <v>0.6012550087545554</v>
       </c>
       <c r="R3">
-        <v>13.691083081688</v>
+        <v>5.411295078790999</v>
       </c>
       <c r="S3">
-        <v>0.07104881637169855</v>
+        <v>0.017489493670221</v>
       </c>
       <c r="T3">
-        <v>0.07104881637169855</v>
+        <v>0.017489493670221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H4">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I4">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J4">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N4">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q4">
-        <v>0.002587583072888889</v>
+        <v>0.1871059108216666</v>
       </c>
       <c r="R4">
-        <v>0.023288247656</v>
+        <v>1.683953197395</v>
       </c>
       <c r="S4">
-        <v>0.0001208525593963297</v>
+        <v>0.005442595230524438</v>
       </c>
       <c r="T4">
-        <v>0.0001208525593963297</v>
+        <v>0.005442595230524438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1867706666666667</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H5">
-        <v>0.560312</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I5">
-        <v>0.443921894237458</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J5">
-        <v>0.4439218942374579</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.265506666666667</v>
+        <v>49.146613</v>
       </c>
       <c r="N5">
-        <v>6.79652</v>
+        <v>147.439839</v>
       </c>
       <c r="O5">
-        <v>0.04451731876459429</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P5">
-        <v>0.0445173187645943</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q5">
-        <v>0.4231301904711111</v>
+        <v>8.348813647783668</v>
       </c>
       <c r="R5">
-        <v>3.80817171424</v>
+        <v>75.139322830053</v>
       </c>
       <c r="S5">
-        <v>0.01976221247235143</v>
+        <v>0.2428529015487571</v>
       </c>
       <c r="T5">
-        <v>0.01976221247235143</v>
+        <v>0.2428529015487571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H6">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I6">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J6">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.466179</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N6">
-        <v>121.398537</v>
+        <v>24.434749</v>
       </c>
       <c r="O6">
-        <v>0.7951624315361971</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P6">
-        <v>0.7951624315361973</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q6">
-        <v>6.874219135077666</v>
+        <v>1.383623092069222</v>
       </c>
       <c r="R6">
-        <v>61.867972215699</v>
+        <v>12.452607828623</v>
       </c>
       <c r="S6">
-        <v>0.3210590550810242</v>
+        <v>0.04024726107619793</v>
       </c>
       <c r="T6">
-        <v>0.3210590550810242</v>
+        <v>0.04024726107619793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H7">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I7">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J7">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.144916333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N7">
-        <v>24.434749</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O7">
-        <v>0.1600480113596151</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P7">
-        <v>0.1600480113596152</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q7">
-        <v>1.383623092069222</v>
+        <v>0.4305728103816667</v>
       </c>
       <c r="R7">
-        <v>12.452607828623</v>
+        <v>3.875155293435</v>
       </c>
       <c r="S7">
-        <v>0.06462184486689489</v>
+        <v>0.01252463652209428</v>
       </c>
       <c r="T7">
-        <v>0.0646218448668949</v>
+        <v>0.01252463652209428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1698756666666666</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H8">
-        <v>0.5096269999999999</v>
+        <v>0.221693</v>
       </c>
       <c r="I8">
-        <v>0.4037653721400808</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J8">
-        <v>0.4037653721400807</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01385433333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N8">
-        <v>0.041563</v>
+        <v>147.439839</v>
       </c>
       <c r="O8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q8">
-        <v>0.002353514111222222</v>
+        <v>3.631820025269667</v>
       </c>
       <c r="R8">
-        <v>0.021181627001</v>
+        <v>32.686380227427</v>
       </c>
       <c r="S8">
-        <v>0.000109920414496697</v>
+        <v>0.1056435163424399</v>
       </c>
       <c r="T8">
-        <v>0.000109920414496697</v>
+        <v>0.1056435163424399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1698756666666666</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H9">
-        <v>0.5096269999999999</v>
+        <v>0.221693</v>
       </c>
       <c r="I9">
-        <v>0.4037653721400808</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J9">
-        <v>0.4037653721400807</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.265506666666667</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N9">
-        <v>6.79652</v>
+        <v>24.434749</v>
       </c>
       <c r="O9">
-        <v>0.04451731876459429</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P9">
-        <v>0.0445173187645943</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q9">
-        <v>0.3848544553377777</v>
+        <v>0.6018903122285555</v>
       </c>
       <c r="R9">
-        <v>3.46369009804</v>
+        <v>5.417012810057</v>
       </c>
       <c r="S9">
-        <v>0.01797455177766501</v>
+        <v>0.01750797357629314</v>
       </c>
       <c r="T9">
-        <v>0.01797455177766502</v>
+        <v>0.01750797357629314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H10">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I10">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J10">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.466179</v>
+        <v>2.534635</v>
       </c>
       <c r="N10">
-        <v>121.398537</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O10">
-        <v>0.7951624315361971</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P10">
-        <v>0.7951624315361973</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q10">
-        <v>0.5409653695983334</v>
+        <v>0.1873036123516666</v>
       </c>
       <c r="R10">
-        <v>4.868688326385</v>
+        <v>1.685732511165</v>
       </c>
       <c r="S10">
-        <v>0.02526568137878189</v>
+        <v>0.005448346034438223</v>
       </c>
       <c r="T10">
-        <v>0.02526568137878188</v>
+        <v>0.005448346034438223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01336833333333333</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H11">
-        <v>0.040105</v>
+        <v>0.771119</v>
       </c>
       <c r="I11">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J11">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.144916333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N11">
-        <v>24.434749</v>
+        <v>147.439839</v>
       </c>
       <c r="O11">
-        <v>0.1600480113596151</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P11">
-        <v>0.1600480113596152</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q11">
-        <v>0.1088839565161111</v>
+        <v>12.63262902331567</v>
       </c>
       <c r="R11">
-        <v>0.9799556086450001</v>
+        <v>113.693661209841</v>
       </c>
       <c r="S11">
-        <v>0.005085403811781596</v>
+        <v>0.3674618624785893</v>
       </c>
       <c r="T11">
-        <v>0.005085403811781597</v>
+        <v>0.3674618624785893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01336833333333333</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H12">
-        <v>0.040105</v>
+        <v>0.771119</v>
       </c>
       <c r="I12">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J12">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01385433333333333</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N12">
-        <v>0.041563</v>
+        <v>24.434749</v>
       </c>
       <c r="O12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q12">
-        <v>0.0001852093461111111</v>
+        <v>2.093566579347889</v>
       </c>
       <c r="R12">
-        <v>0.001666884115</v>
+        <v>18.842099214131</v>
       </c>
       <c r="S12">
-        <v>8.650166147770889E-06</v>
+        <v>0.06089831918995004</v>
       </c>
       <c r="T12">
-        <v>8.650166147770887E-06</v>
+        <v>0.06089831918995004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01336833333333333</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H13">
-        <v>0.040105</v>
+        <v>0.771119</v>
       </c>
       <c r="I13">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J13">
-        <v>0.03177423929595163</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.265506666666667</v>
+        <v>2.534635</v>
       </c>
       <c r="N13">
-        <v>6.79652</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O13">
-        <v>0.04451731876459429</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P13">
-        <v>0.0445173187645943</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q13">
-        <v>0.03028604828888889</v>
+        <v>0.6515017355216666</v>
       </c>
       <c r="R13">
-        <v>0.2725744346</v>
+        <v>5.863515619695</v>
       </c>
       <c r="S13">
-        <v>0.001414503939240377</v>
+        <v>0.01895108616749274</v>
       </c>
       <c r="T13">
-        <v>0.001414503939240377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.050714</v>
-      </c>
-      <c r="H14">
-        <v>0.152142</v>
-      </c>
-      <c r="I14">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="J14">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>40.466179</v>
-      </c>
-      <c r="N14">
-        <v>121.398537</v>
-      </c>
-      <c r="O14">
-        <v>0.7951624315361971</v>
-      </c>
-      <c r="P14">
-        <v>0.7951624315361973</v>
-      </c>
-      <c r="Q14">
-        <v>2.052201801806</v>
-      </c>
-      <c r="R14">
-        <v>18.469816216254</v>
-      </c>
-      <c r="S14">
-        <v>0.09584768224237959</v>
-      </c>
-      <c r="T14">
-        <v>0.09584768224237958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.050714</v>
-      </c>
-      <c r="H15">
-        <v>0.152142</v>
-      </c>
-      <c r="I15">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="J15">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.144916333333333</v>
-      </c>
-      <c r="N15">
-        <v>24.434749</v>
-      </c>
-      <c r="O15">
-        <v>0.1600480113596151</v>
-      </c>
-      <c r="P15">
-        <v>0.1600480113596152</v>
-      </c>
-      <c r="Q15">
-        <v>0.4130612869286667</v>
-      </c>
-      <c r="R15">
-        <v>3.717551582358</v>
-      </c>
-      <c r="S15">
-        <v>0.01929194630924014</v>
-      </c>
-      <c r="T15">
-        <v>0.01929194630924014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.050714</v>
-      </c>
-      <c r="H16">
-        <v>0.152142</v>
-      </c>
-      <c r="I16">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="J16">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.01385433333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.041563</v>
-      </c>
-      <c r="O16">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="P16">
-        <v>0.0002722383395933261</v>
-      </c>
-      <c r="Q16">
-        <v>0.0007026086606666667</v>
-      </c>
-      <c r="R16">
-        <v>0.006323477946000001</v>
-      </c>
-      <c r="S16">
-        <v>3.281519955252857E-05</v>
-      </c>
-      <c r="T16">
-        <v>3.281519955252856E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.050714</v>
-      </c>
-      <c r="H17">
-        <v>0.152142</v>
-      </c>
-      <c r="I17">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="J17">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.265506666666667</v>
-      </c>
-      <c r="N17">
-        <v>6.79652</v>
-      </c>
-      <c r="O17">
-        <v>0.04451731876459429</v>
-      </c>
-      <c r="P17">
-        <v>0.0445173187645943</v>
-      </c>
-      <c r="Q17">
-        <v>0.1148929050933333</v>
-      </c>
-      <c r="R17">
-        <v>1.03403614584</v>
-      </c>
-      <c r="S17">
-        <v>0.005366050575337475</v>
-      </c>
-      <c r="T17">
-        <v>0.005366050575337475</v>
+        <v>0.01895108616749274</v>
       </c>
     </row>
   </sheetData>
